--- a/tmp_file/需求池/向日葵需求池-cxs收集.xlsx
+++ b/tmp_file/需求池/向日葵需求池-cxs收集.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\my_github\word_notes\Work_Learn_Notes\pm_notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\my_github\word_notes\Work_Learn_Notes\tmp_file\需求池\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6975A43B-2FB7-4718-AA99-F5D8300CA348}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329DCB0C-04DD-4934-8D6C-8C02457D84DC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="25725" windowHeight="9555" activeTab="2" xr2:uid="{D54FF7F4-A71C-42B3-AE14-3CCE4BBC09F5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D54FF7F4-A71C-42B3-AE14-3CCE4BBC09F5}"/>
   </bookViews>
   <sheets>
     <sheet name="策略-需求池" sheetId="1" r:id="rId1"/>
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="94">
   <si>
     <t>备注</t>
   </si>
@@ -487,6 +487,22 @@
   </si>
   <si>
     <t>微信/QQ那种功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制电脑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码验证模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示忘记电脑帐号密码怎么办</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为小白或者很多人不知道帐号密码是什么/独立访问密码怎么设置</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1062,15 +1078,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E9CE1C3-EAF6-4EA0-808A-5FA90625FE93}">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:P1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.375" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="40" style="1" customWidth="1"/>
     <col min="6" max="6" width="72.5" style="1" customWidth="1"/>
@@ -1411,11 +1427,21 @@
     </row>
     <row r="11" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -1444,7 +1470,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD10"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1751,7 +1777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F3E1BA-BC2A-4832-BC58-2E3739EF8FBE}">
   <dimension ref="A2:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
